--- a/arangoDB/results/result_raw.xlsx
+++ b/arangoDB/results/result_raw.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\janio\Documents\Education\Mestrado e Doutorado\CEFET\Disciplinas\5. Banco de Dados\Trabalho 03\results-20210518T134631Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E349A2-38BC-4DF7-9762-F94331406108}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7570336-5A7B-4D43-9BBA-EEA8422898B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{689C0A45-BDCC-4C6C-9B57-71366785D0C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Testes selecionados" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="3" r:id="rId1"/>
+    <sheet name="raw_tabular" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="18">
   <si>
     <t>SGBD</t>
   </si>
@@ -73,6 +71,24 @@
   </si>
   <si>
     <t>ArangoDB MMFILES (p)</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>SGBD_AND_METRIC</t>
+  </si>
+  <si>
+    <t>METRIC</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -157,7 +173,442 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Testes selecionados'!$A$2</c:f>
+              <c:f>raw!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ArangoDB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>raw!$G$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$G$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02BB-4D91-8F02-487C68988CBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>raw!$G$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>raw!$G$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02BB-4D91-8F02-487C68988CBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="574489472"/>
+        <c:axId val="574490784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="574489472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200" b="1"/>
+                  <a:t>Testes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574490784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574490784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200" b="1"/>
+                  <a:t>Tempo de execução</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200" b="1" baseline="0"/>
+                  <a:t> em s</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1904761904761904E-2"/>
+              <c:y val="0.21770519438660396"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574489472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_tabular!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -178,7 +629,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Testes selecionados'!$B$1:$H$1</c:f>
+              <c:f>raw_tabular!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -207,7 +658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testes selecionados'!$B$2:$H$2</c:f>
+              <c:f>raw_tabular!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -246,7 +697,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Testes selecionados'!$A$3</c:f>
+              <c:f>raw_tabular!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -269,7 +720,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Testes selecionados'!$B$1:$H$1</c:f>
+              <c:f>raw_tabular!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -298,7 +749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Testes selecionados'!$B$3:$H$3</c:f>
+              <c:f>raw_tabular!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -691,6 +1142,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -1185,7 +1676,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>147640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FC78C5-C280-494A-9393-30459208F0B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1226,149 +2254,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Testes selecionados"/>
-      <sheetName val="Geral"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>SINGLE_READ</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>SINGLE_WRITE</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>SINGLE_WRITE_SYNC</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>AGGREGATION</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>NEIGHBORS_2</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>NEIGHBORS_2ND_DATA</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>SHORTEST</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ArangoDB (s)</v>
-          </cell>
-          <cell r="B4">
-            <v>7.9850000000000003</v>
-          </cell>
-          <cell r="C4">
-            <v>9.7050000000000001</v>
-          </cell>
-          <cell r="D4">
-            <v>20.175000000000001</v>
-          </cell>
-          <cell r="E4">
-            <v>1.68</v>
-          </cell>
-          <cell r="F4">
-            <v>1.129</v>
-          </cell>
-          <cell r="G4">
-            <v>2.6019999999999999</v>
-          </cell>
-          <cell r="H4">
-            <v>0.20599999999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>ArangoDB MMFILES (s)</v>
-          </cell>
-          <cell r="B5">
-            <v>7.9749999999999996</v>
-          </cell>
-          <cell r="C5">
-            <v>9.8350000000000009</v>
-          </cell>
-          <cell r="D5">
-            <v>19.716999999999999</v>
-          </cell>
-          <cell r="E5">
-            <v>0.56599999999999995</v>
-          </cell>
-          <cell r="F5">
-            <v>1.1459999999999999</v>
-          </cell>
-          <cell r="G5">
-            <v>2.5819999999999999</v>
-          </cell>
-          <cell r="H5">
-            <v>0.54400000000000004</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>ArangoDB (s)</v>
-          </cell>
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-          <cell r="C6">
-            <v>1</v>
-          </cell>
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-          <cell r="G6">
-            <v>1</v>
-          </cell>
-          <cell r="H6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>ArangoDB MMFILES (s)</v>
-          </cell>
-          <cell r="B7">
-            <v>0.99874765184721348</v>
-          </cell>
-          <cell r="C7">
-            <v>1.0133951571354973</v>
-          </cell>
-          <cell r="D7">
-            <v>0.97729863692688956</v>
-          </cell>
-          <cell r="E7">
-            <v>0.33690476190476187</v>
-          </cell>
-          <cell r="F7">
-            <v>1.0150575730735163</v>
-          </cell>
-          <cell r="G7">
-            <v>0.99231360491929288</v>
-          </cell>
-          <cell r="H7">
-            <v>2.6407766990291264</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1667,10 +2552,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75AD18-D224-4958-AF44-42CA3D0344E6}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7.9850000000000003</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>9.7050000000000001</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>20.175000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2.6019999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7.9749999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>9.8350000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>19.716999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1.1459999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2.5819999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.99874765184721348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1.0133951571354973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0.97729863692688956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.33690476190476187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1.0150575730735163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0.99231360491929288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2.6407766990291264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B09BFD-7EBE-48FA-9D75-CCD963D071F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/arangoDB/results/result_raw.xlsx
+++ b/arangoDB/results/result_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\janio\Documents\Education\Mestrado e Doutorado\CEFET\Disciplinas\5. Banco de Dados\Trabalho 03\results-20210518T134631Z-001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7570336-5A7B-4D43-9BBA-EEA8422898B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7BDAD-D4AD-4B95-9322-8535F3714971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{689C0A45-BDCC-4C6C-9B57-71366785D0C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{689C0A45-BDCC-4C6C-9B57-71366785D0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="3" r:id="rId1"/>
@@ -754,25 +754,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.9749999999999996</c:v>
+                  <c:v>8.1639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8350000000000009</c:v>
+                  <c:v>9.6690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.716999999999999</c:v>
+                  <c:v>19.658000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56599999999999995</c:v>
+                  <c:v>0.623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1459999999999999</c:v>
+                  <c:v>1.0249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5819999999999999</c:v>
+                  <c:v>2.548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54400000000000004</c:v>
+                  <c:v>1.5820000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75AD18-D224-4958-AF44-42CA3D0344E6}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2712,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>7.9749999999999996</v>
+        <v>8.1639999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2726,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>9.8350000000000009</v>
+        <v>9.6690000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2740,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>19.716999999999999</v>
+        <v>19.658000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2754,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>0.56599999999999995</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2768,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>1.1459999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>2.5819999999999999</v>
+        <v>2.548</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2796,7 +2798,7 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>0.54400000000000004</v>
+        <v>1.5820000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2908,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.99874765184721348</v>
+        <v>1.0224170319348778</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2922,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1.0133951571354973</v>
+        <v>0.99629057187017001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>0.97729863692688956</v>
+        <v>0.97437422552664188</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,7 +2952,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.33690476190476187</v>
+        <v>0.37083333333333335</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>1.0150575730735163</v>
+        <v>0.90788308237378201</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>0.99231360491929288</v>
+        <v>0.97924673328209078</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>2.6407766990291264</v>
+        <v>7.6796116504854375</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B09BFD-7EBE-48FA-9D75-CCD963D071F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3079,30 +3083,30 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>7.9749999999999996</v>
+        <v>8.1639999999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>9.8350000000000009</v>
+        <v>9.6690000000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>19.716999999999999</v>
+        <v>19.658000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.56599999999999995</v>
+        <v>0.623</v>
       </c>
       <c r="F3" s="1">
-        <v>1.1459999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>2.5819999999999999</v>
+        <v>2.548</v>
       </c>
       <c r="H3" s="1">
-        <v>0.54400000000000004</v>
+        <v>1.5820000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3128,28 +3132,28 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.99874765184721348</v>
+        <v>1.0224170319348778</v>
       </c>
       <c r="C5">
-        <v>1.0133951571354973</v>
+        <v>0.99629057187017001</v>
       </c>
       <c r="D5">
-        <v>0.97729863692688956</v>
+        <v>0.97437422552664188</v>
       </c>
       <c r="E5">
-        <v>0.33690476190476187</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="F5">
-        <v>1.0150575730735163</v>
+        <v>0.90788308237378201</v>
       </c>
       <c r="G5">
-        <v>0.99231360491929288</v>
+        <v>0.97924673328209078</v>
       </c>
       <c r="H5">
-        <v>2.6407766990291264</v>
+        <v>7.6796116504854375</v>
       </c>
     </row>
   </sheetData>
